--- a/output1.xlsx
+++ b/output1.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.629440118</v>
+        <v>-5.494485498</v>
       </c>
       <c r="B2" t="n">
-        <v>3.371496405433669</v>
+        <v>-0.4977041813097545</v>
       </c>
       <c r="C2" t="n">
-        <v>1.887383830566331</v>
+        <v>-10.49126681469025</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,97 +471,97 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.658511469</v>
+        <v>-5.789385583</v>
       </c>
       <c r="B3" t="n">
-        <v>7.50665181021145</v>
+        <v>-2.166225640809754</v>
       </c>
       <c r="C3" t="n">
-        <v>6.022539235344112</v>
+        <v>-12.15978827419025</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.797594613</v>
+        <v>-5.194742117</v>
       </c>
       <c r="B4" t="n">
-        <v>5.061159634073015</v>
+        <v>-0.5260049403930864</v>
       </c>
       <c r="C4" t="n">
-        <v>3.577047059205677</v>
+        <v>-10.51956757377358</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.168281532</v>
+        <v>-2.727375385</v>
       </c>
       <c r="B5" t="n">
-        <v>3.655054683314429</v>
+        <v>1.72835866612573</v>
       </c>
       <c r="C5" t="n">
-        <v>2.170942108447091</v>
+        <v>-8.265203967254763</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.126853214</v>
+        <v>-3.675725961</v>
       </c>
       <c r="B6" t="n">
-        <v>2.826239481660229</v>
+        <v>1.401993834046015</v>
       </c>
       <c r="C6" t="n">
-        <v>1.34212690679289</v>
+        <v>-8.591568799334476</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.41030858</v>
+        <v>-6.511709786</v>
       </c>
       <c r="B7" t="n">
-        <v>2.372526395576614</v>
+        <v>-0.9322909797790251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8884138207092753</v>
+        <v>-10.92585361315952</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.23504592</v>
+        <v>-7.064472117</v>
       </c>
       <c r="B8" t="n">
-        <v>2.019381760087498</v>
+        <v>-1.840668972395135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5352691852201594</v>
+        <v>-11.83423160577563</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.119698651</v>
+        <v>-5.8321753</v>
       </c>
       <c r="B9" t="n">
-        <v>1.946505157661825</v>
+        <v>-2.417038086762792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05174679880458932</v>
+        <v>-9.649401920576056</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.192142673</v>
+        <v>-0.387658674</v>
       </c>
       <c r="B10" t="n">
-        <v>1.78731374877241</v>
+        <v>1.650541812625317</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1618960862533809</v>
+        <v>-4.684060568214681</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.015983891</v>
+        <v>3.420805967</v>
       </c>
       <c r="B11" t="n">
-        <v>1.670699434318788</v>
+        <v>5.507835192053401</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4023070446746421</v>
+        <v>-0.6412453511156717</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,125 +597,125 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.31900446</v>
+        <v>6.184015173</v>
       </c>
       <c r="B12" t="n">
-        <v>1.512357070413007</v>
+        <v>1.828854837928099</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6610743942637824</v>
+        <v>-4.224574601061136</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.237138068</v>
+        <v>5.624731011</v>
       </c>
       <c r="B13" t="n">
-        <v>1.380077805304974</v>
+        <v>3.081232131054763</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8134695702153216</v>
+        <v>-2.546539103569417</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.017184394</v>
+        <v>5.14825614</v>
       </c>
       <c r="B14" t="n">
-        <v>1.285381191002671</v>
+        <v>3.703546168601089</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8459605737679819</v>
+        <v>-1.102913031999718</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.518896299</v>
+        <v>5.623487111</v>
       </c>
       <c r="B15" t="n">
-        <v>1.315794278815039</v>
+        <v>4.280019153807496</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7511937967494888</v>
+        <v>0.1294349890305075</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.827308995</v>
+        <v>5.961442543</v>
       </c>
       <c r="B16" t="n">
-        <v>1.410271793009289</v>
+        <v>4.853910996517099</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6197177761125624</v>
+        <v>1.113028478400076</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.968318755</v>
+        <v>6.198460078</v>
       </c>
       <c r="B17" t="n">
-        <v>1.538481142475704</v>
+        <v>5.327807746950627</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5120716865371855</v>
+        <v>1.962373817825678</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.634145868</v>
+        <v>6.401197103</v>
       </c>
       <c r="B18" t="n">
-        <v>1.777397981162135</v>
+        <v>5.740985292053098</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2922829376448586</v>
+        <v>2.677035482185282</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.989590574</v>
+        <v>6.164962995</v>
       </c>
       <c r="B19" t="n">
-        <v>2.034704574171196</v>
+        <v>6.031570740810897</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04162564590915818</v>
+        <v>3.183183755352507</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.036527446</v>
+        <v>4.389178522</v>
       </c>
       <c r="B20" t="n">
-        <v>2.027161948985573</v>
+        <v>5.920563912930042</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01785394230711512</v>
+        <v>3.205634870480829</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.726896568</v>
+        <v>3.785920682</v>
       </c>
       <c r="B21" t="n">
-        <v>1.893594405880599</v>
+        <v>5.740235016139677</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003314756212008052</v>
+        <v>3.071466375325854</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.960161653</v>
+        <v>4.171982188</v>
       </c>
       <c r="B22" t="n">
-        <v>1.73092548619386</v>
+        <v>5.811682453873926</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1707100982318067</v>
+        <v>2.905600679779628</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.419871715</v>
+        <v>5.05491376</v>
       </c>
       <c r="B23" t="n">
-        <v>1.575331274903095</v>
+        <v>5.987518982178616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1123471534773155</v>
+        <v>3.010343337720662</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,41 +765,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.196527012</v>
+        <v>5.418842685</v>
       </c>
       <c r="B24" t="n">
-        <v>1.360448354713277</v>
+        <v>6.164768386584611</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.09138749880065045</v>
+        <v>3.203243520842045</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.615544613</v>
+        <v>3.177929207</v>
       </c>
       <c r="B25" t="n">
-        <v>1.108350214564926</v>
+        <v>5.850366745788232</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3416919039757687</v>
+        <v>2.912356066015477</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.530709195</v>
+        <v>2.082189243</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9268056822155862</v>
+        <v>5.385402389541746</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5271492054717027</v>
+        <v>2.454163970632726</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -807,27 +807,27 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.041184144</v>
+        <v>2.093450342</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9221047089273557</v>
+        <v>4.990099097352183</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5860982402777586</v>
+        <v>2.116719533464183</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.180442634</v>
+        <v>2.761355955</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9374608369836419</v>
+        <v>4.754111105419451</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5964665486559795</v>
+        <v>2.035118297598609</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.283805977</v>
+        <v>3.366809557</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8854480059014107</v>
+        <v>4.735473950173461</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4990423460720606</v>
+        <v>2.042611840159228</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.678267537</v>
+        <v>2.880812632</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8999125232623926</v>
+        <v>4.58982174759347</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3191802747679047</v>
+        <v>1.984656870634387</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.538691634</v>
+        <v>2.714705659</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9261995250756482</v>
+        <v>4.445743655276162</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2460139554317672</v>
+        <v>1.899437646577283</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.19214003</v>
+        <v>2.902762561</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8798677884297166</v>
+        <v>4.411792716633754</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4127863928663182</v>
+        <v>1.825350353366614</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.018631287</v>
+        <v>3.900149684</v>
       </c>
       <c r="B33" t="n">
-        <v>0.939069573631247</v>
+        <v>4.58977331324079</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5580201038945364</v>
+        <v>1.960248904759356</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.420826825</v>
+        <v>4.807646434</v>
       </c>
       <c r="B34" t="n">
-        <v>1.11799888716718</v>
+        <v>4.897259031567449</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6447701558296631</v>
+        <v>2.266206132091803</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.459133419</v>
+        <v>3.512364677</v>
       </c>
       <c r="B35" t="n">
-        <v>1.175692813052489</v>
+        <v>5.081399620515148</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.6134113052602657</v>
+        <v>2.054304304591969</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.439643315</v>
+        <v>2.854321395</v>
       </c>
       <c r="B36" t="n">
-        <v>1.204063831725551</v>
+        <v>5.110701772881907</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5783555705439309</v>
+        <v>1.739474101266129</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.346795864</v>
+        <v>3.005080792</v>
       </c>
       <c r="B37" t="n">
-        <v>1.235898278081686</v>
+        <v>5.186785193202889</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.5966089162172392</v>
+        <v>1.495333285172532</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.532802765</v>
+        <v>2.510881827</v>
       </c>
       <c r="B38" t="n">
-        <v>1.328785082617279</v>
+        <v>5.207554448294763</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6042103457764928</v>
+        <v>1.142406832266835</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.743793226</v>
+        <v>1.864980405</v>
       </c>
       <c r="B39" t="n">
-        <v>1.43922842174018</v>
+        <v>5.152745195792207</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5620196410168894</v>
+        <v>0.673107137487452</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.28765551</v>
+        <v>1.747752561</v>
       </c>
       <c r="B40" t="n">
-        <v>1.411402029235494</v>
+        <v>4.925810059469847</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5945828345979214</v>
+        <v>0.4338953796161418</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.201406223</v>
+        <v>1.427394715</v>
       </c>
       <c r="B41" t="n">
-        <v>1.294185306314368</v>
+        <v>4.907188477292416</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.7213248674851129</v>
+        <v>-0.04853284096613653</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.738482148</v>
+        <v>0.810805617</v>
       </c>
       <c r="B42" t="n">
-        <v>1.098716773436534</v>
+        <v>4.842082298219037</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.9358648811602168</v>
+        <v>-0.630904394000265</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,41 +1031,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.196568871</v>
+        <v>1.508100639</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8469892630994987</v>
+        <v>4.863821260392911</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.195378789288431</v>
+        <v>-0.8916590146213905</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.562108912</v>
+        <v>2.521127485</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5632785644087199</v>
+        <v>4.994571188818144</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.466871535348326</v>
+        <v>-0.8083758318621945</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.748749048</v>
+        <v>0.301922228</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4921646939623767</v>
+        <v>4.675797225787007</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.514545157320315</v>
+        <v>-1.206111059493178</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.003770454</v>
+        <v>0.428756468</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5661973349857525</v>
+        <v>4.619068460732759</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.385601046387676</v>
+        <v>-1.671839696727003</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.626203276</v>
+        <v>4.501202588</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7642157342770279</v>
+        <v>5.267550958540909</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.169242954085199</v>
+        <v>-1.109244712245136</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.385026952</v>
+        <v>5.061116779</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8866407505843827</v>
+        <v>5.859905576973153</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.056645194152109</v>
+        <v>-0.5087806174037937</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.238594472</v>
+        <v>4.11413508</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8717685921026381</v>
+        <v>6.17327979211661</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.103211305876028</v>
+        <v>-0.2467129596785393</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.861576687</v>
+        <v>5.208248667</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7321058670918279</v>
+        <v>6.744771760291732</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.261896035606995</v>
+        <v>0.07979719335191859</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.037887424</v>
+        <v>5.051573706</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5516345789279523</v>
+        <v>7.330471344257333</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.390626096409205</v>
+        <v>0.1498226598782408</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.343188779</v>
+        <v>2.455861075</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4748239362261371</v>
+        <v>7.45788177532681</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.283292313298485</v>
+        <v>-0.4913080076665288</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.025350328</v>
+        <v>0.226042785</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5356958322889325</v>
+        <v>6.889527230602223</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.192609280785709</v>
+        <v>-1.225863003751667</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.099226485</v>
+        <v>-1.816137382</v>
       </c>
       <c r="B54" t="n">
-        <v>0.669133019735046</v>
+        <v>5.951423065851378</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.154971934403911</v>
+        <v>-2.146960223300269</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.410421942</v>
+        <v>-0.007156887</v>
       </c>
       <c r="B55" t="n">
-        <v>0.660089233546911</v>
+        <v>5.516076737231833</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.212929533772542</v>
+        <v>-2.47537368293567</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.918159454</v>
+        <v>0.762836276</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5135587192518358</v>
+        <v>5.277357033163343</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.323095941553851</v>
+        <v>-2.539661496433559</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.396637016</v>
+        <v>-0.984995722</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2974843832318186</v>
+        <v>4.715581520624944</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.503770451887097</v>
+        <v>-2.919426902763918</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.395087163</v>
+        <v>-2.202789678</v>
       </c>
       <c r="B58" t="n">
-        <v>0.140264327884002</v>
+        <v>4.236415456286688</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.663328996175786</v>
+        <v>-3.680611345759628</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1.108115605</v>
+        <v>-3.10542588</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06330621383484714</v>
+        <v>3.497638354576052</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.725004522429892</v>
+        <v>-4.295168658746523</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.140440831</v>
+        <v>-0.562432731</v>
       </c>
       <c r="B60" t="n">
-        <v>0.186986096238034</v>
+        <v>3.376430225782881</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.572520546489218</v>
+        <v>-4.239427686929415</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,27 +1283,27 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.511445244</v>
+        <v>1.728869969</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4250423966982495</v>
+        <v>4.231628656876262</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.32889112111797</v>
+        <v>-4.230477313889301</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.216646159</v>
+        <v>2.847676254</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5629498677480858</v>
+        <v>5.479343100727665</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.199370055817431</v>
+        <v>-4.339350128522321</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.143039168</v>
+        <v>4.925241198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5904610510856173</v>
+        <v>6.696549702635596</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.156812800018168</v>
+        <v>-3.814457137025012</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.547217917</v>
+        <v>7.66024065</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5349235190848638</v>
+        <v>7.844839105089816</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.206892167901908</v>
+        <v>-2.47506684067403</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.857678783</v>
+        <v>6.700807175</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4757339935654316</v>
+        <v>8.660194097194848</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.356380556808316</v>
+        <v>-1.68405240732779</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.958601953</v>
+        <v>7.076339087</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4196736641049963</v>
+        <v>9.401395299732563</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.507631800004571</v>
+        <v>-0.9899455922729601</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,27 +1367,27 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.413903327</v>
+        <v>12.84236478</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4423048766239732</v>
+        <v>11.1443438025113</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.478232695241259</v>
+        <v>0.721763263311467</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.6221860380000001</v>
+        <v>11.37529047</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3726063398883546</v>
+        <v>12.20703824097276</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.450223023380468</v>
+        <v>1.835964299312685</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.42372677</v>
+        <v>4.209410101</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1524756575332493</v>
+        <v>11.52884569167961</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.584059803335545</v>
+        <v>1.389320091741872</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.845881392</v>
+        <v>4.054810659</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.06056063299170467</v>
+        <v>10.781685234915</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.823059333428507</v>
+        <v>1.174771457610102</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.997137642</v>
+        <v>4.445672594</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.27648579451707</v>
+        <v>10.35696536812722</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.029265304880969</v>
+        <v>0.9864689226197427</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1.287404159</v>
+        <v>3.276272</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.3600572634464234</v>
+        <v>9.829578080898981</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.999505286755767</v>
+        <v>0.5556780255636635</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.175574835</v>
+        <v>3.206210644</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.4272581061797871</v>
+        <v>9.432285550961154</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.930621867804769</v>
+        <v>0.1584035081312862</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.603787977</v>
+        <v>4.12910086</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.5637341719108233</v>
+        <v>9.330655851277196</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.964085012394172</v>
+        <v>-0.0064642824556147</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-1.045598391</v>
+        <v>4.156299195</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5407356013323218</v>
+        <v>9.254286955741684</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.899759096626015</v>
+        <v>-0.1324140363206672</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.482254834</v>
+        <v>4.270800469</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3559205108093318</v>
+        <v>9.090701838404495</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.789377165240346</v>
+        <v>-0.08488332152532507</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.763664027</v>
+        <v>5.603086382</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.2425958150132062</v>
+        <v>9.26640205081307</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.779107931295199</v>
+        <v>0.1794873344731238</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.597533106</v>
+        <v>6.310054381</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1208318905095984</v>
+        <v>9.518692870819233</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.735544343231883</v>
+        <v>0.5620404117173807</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.031570349</v>
+        <v>6.370141779</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08408530406812043</v>
+        <v>9.28032299123079</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.55655814086289</v>
+        <v>1.332320361082935</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.183919299</v>
+        <v>5.623184118</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2638786627437354</v>
+        <v>8.520206907085967</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.368289204450679</v>
+        <v>2.219181424764249</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.189867614</v>
+        <v>4.506942614</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4055326991724273</v>
+        <v>7.792024593169155</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.213114081693465</v>
+        <v>2.602263111813618</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.04097959</v>
+        <v>2.21555901</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4617228784853881</v>
+        <v>7.157710173152955</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.124179818450917</v>
+        <v>2.04394357797565</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,27 +1591,27 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.211162647</v>
+        <v>1.437102078</v>
       </c>
       <c r="B83" t="n">
-        <v>0.507816007758083</v>
+        <v>6.452176208986632</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.122246617987433</v>
+        <v>1.483987608806318</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.309447456</v>
+        <v>2.451743427</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6383265599515355</v>
+        <v>6.130906832762415</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.253650030543092</v>
+        <v>1.19872158678507</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.064773341</v>
+        <v>3.6389708</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5541014840336038</v>
+        <v>6.03219467719765</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.472269599098537</v>
+        <v>1.287096378365526</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,27 +1633,27 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.772107268</v>
+        <v>4.517512531</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2971639508794396</v>
+        <v>6.073075802750572</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.740541353172141</v>
+        <v>1.589362056086653</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.415290131</v>
+        <v>2.238491332</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3528165321356159</v>
+        <v>5.710079398775246</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.67363450580212</v>
+        <v>1.31526741814373</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.343584122</v>
+        <v>0.925311217</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5204720680171346</v>
+        <v>5.267598393393612</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.439692796662281</v>
+        <v>0.7228035431067386</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.289256053</v>
+        <v>0.925674975</v>
       </c>
       <c r="B89" t="n">
-        <v>0.678518108881615</v>
+        <v>5.035971140042134</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.298192269709793</v>
+        <v>0.1266203967042872</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.590875206</v>
+        <v>0.785904441</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8828159141090619</v>
+        <v>4.905957534583229</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.142205159517217</v>
+        <v>-0.4615225304891446</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.973109733</v>
+        <v>0.803533901</v>
       </c>
       <c r="B91" t="n">
-        <v>1.122921856015141</v>
+        <v>4.692939371105718</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.9411893583047967</v>
+        <v>-0.8159778085070251</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.795303038</v>
+        <v>3.64229276</v>
       </c>
       <c r="B92" t="n">
-        <v>1.273122823154492</v>
+        <v>4.972063016585411</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.8096156093585644</v>
+        <v>-0.4135766614721001</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.679056229</v>
+        <v>5.322034018</v>
       </c>
       <c r="B93" t="n">
-        <v>1.358873731794203</v>
+        <v>5.480382093966734</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.7164454689402204</v>
+        <v>0.2952205988016976</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.659164025</v>
+        <v>5.187660769</v>
       </c>
       <c r="B94" t="n">
-        <v>1.396911601172781</v>
+        <v>5.823341688212166</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.6193033807582899</v>
+        <v>0.8722047744961525</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.620480575</v>
+        <v>5.957931294</v>
       </c>
       <c r="B95" t="n">
-        <v>1.033340485630294</v>
+        <v>6.878143374330506</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1630616792266901</v>
+        <v>0.8614663142474548</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.578372912</v>
+        <v>7.086450544</v>
       </c>
       <c r="B96" t="n">
-        <v>1.061987187407742</v>
+        <v>7.521472514672638</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1344149774492421</v>
+        <v>1.504795454589587</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.655445625</v>
+        <v>7.989346359</v>
       </c>
       <c r="B97" t="n">
-        <v>1.100319091430955</v>
+        <v>8.216714989892175</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.09608307342602873</v>
+        <v>2.200037929809124</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7921957549999999</v>
+        <v>8.138834395</v>
       </c>
       <c r="B98" t="n">
-        <v>1.158334640653545</v>
+        <v>8.802806577155227</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0380675242034394</v>
+        <v>2.786129517072176</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.036933591</v>
+        <v>6.925013119</v>
       </c>
       <c r="B99" t="n">
-        <v>1.253694647238886</v>
+        <v>9.028915591604456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05729248238190188</v>
+        <v>3.012238531521404</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.060901508</v>
+        <v>6.495760119</v>
       </c>
       <c r="B100" t="n">
-        <v>1.334776235897453</v>
+        <v>9.123952203116069</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1383740710404688</v>
+        <v>3.107275143033017</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.980003713</v>
+        <v>6.43917705</v>
       </c>
       <c r="B101" t="n">
-        <v>1.383461947813578</v>
+        <v>9.188664878514341</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1870597829565941</v>
+        <v>3.17198781843129</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -474,13 +474,13 @@
         <v>-5.789385583</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.166225640809754</v>
+        <v>-11.80313315503198</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.15978827419025</v>
+        <v>-21.79669578841247</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-5.194742117</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5260049403930864</v>
+        <v>-7.164066510905538</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.51956757377358</v>
+        <v>-17.15762914428603</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>-2.727375385</v>
       </c>
       <c r="B5" t="n">
-        <v>1.72835866612573</v>
+        <v>-4.092184118306001</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.265203967254763</v>
+        <v>-14.08574675168649</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         <v>-3.675725961</v>
       </c>
       <c r="B6" t="n">
-        <v>1.401993834046015</v>
+        <v>-2.38685367050256</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.591568799334476</v>
+        <v>-12.38041630388305</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>-6.511709786</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9322909797790251</v>
+        <v>-1.951012764660442</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.92585361315952</v>
+        <v>-11.94457539804093</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>-7.064472117</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.840668972395135</v>
+        <v>-1.909628527811914</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.83423160577563</v>
+        <v>-11.90319116119241</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>-5.8321753</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.417038086762792</v>
+        <v>-3.077412440718412</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.649401920576056</v>
+        <v>-10.30977627453167</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,13 +572,13 @@
         <v>-0.387658674</v>
       </c>
       <c r="B10" t="n">
-        <v>1.650541812625317</v>
+        <v>-2.328199442671404</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.684060568214681</v>
+        <v>-8.662801823511403</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>3.420805967</v>
       </c>
       <c r="B11" t="n">
-        <v>5.507835192053401</v>
+        <v>-0.6368153762864619</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6412453511156717</v>
+        <v>-6.785895919455534</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
